--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1- UMLearn\COMP\COMP 4710\COMP 4710\Project\Analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayue\Documents\GitHub\COMP4710_Group14_Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D887B-8B69-4B85-B059-55DA72CA1206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B041835-192A-4241-809E-F891109330A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12396" yWindow="0" windowWidth="10644" windowHeight="11892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,12 +406,12 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -676,7 +676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -782,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -835,7 +835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -941,7 +941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -958,7 +958,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
         <v>7</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayue\Documents\GitHub\COMP4710_Group14_Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B041835-192A-4241-809E-F891109330A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29E23C8-F4CA-4C19-9522-B769BE445A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayue\Documents\GitHub\COMP4710_Group14_Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29E23C8-F4CA-4C19-9522-B769BE445A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C38BF7A-2EF0-4C97-9097-D3DB5E05BCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -746,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
